--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485596F-FA88-4457-AACE-6FCC996825B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100FCD7-0ABE-4C90-8A93-CD95DC18E027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>coord</t>
   </si>
@@ -79,6 +79,93 @@
   </si>
   <si>
     <t>non</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>grece</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Thrace</t>
+  </si>
+  <si>
+    <t>thrace</t>
+  </si>
+  <si>
+    <t>espagne</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Elide</t>
+  </si>
+  <si>
+    <t>elide</t>
+  </si>
+  <si>
+    <t>bassin_cygnes</t>
+  </si>
+  <si>
+    <t>48.807634, 2.111452</t>
+  </si>
+  <si>
+    <t>Bassin d'Apollon</t>
+  </si>
+  <si>
+    <t>XXe siècle (si différent)</t>
+  </si>
+  <si>
+    <t>Bassin des Cygnes/Lac d'Alcine</t>
+  </si>
+  <si>
+    <t>Ménagerie</t>
+  </si>
+  <si>
+    <t>Fontainebleau</t>
+  </si>
+  <si>
+    <t>menagerie</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>dépend si on focus le "lac" ou le bassin</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_royale_de_Versailles</t>
+  </si>
+  <si>
+    <t>Disparu</t>
+  </si>
+  <si>
+    <t>48.804422, 2.092659</t>
+  </si>
+  <si>
+    <t>48.402445, 2.701357</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Fontainebleau</t>
+  </si>
+  <si>
+    <t>Château de Fontainebleau</t>
+  </si>
+  <si>
+    <t>chateau_fontainebleau</t>
   </si>
 </sst>
 </file>
@@ -423,183 +510,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="52.26953125" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="52.26953125" customWidth="1"/>
+    <col min="8" max="8" width="31.36328125" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -609,8 +804,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -620,8 +816,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -631,8 +828,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -642,8 +840,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -653,8 +852,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -664,6 +864,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100FCD7-0ABE-4C90-8A93-CD95DC18E027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF48D07-7A3C-4A79-BAD1-211B1D602A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>coord</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>chateau_fontainebleau</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2988507</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3017382</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/390903</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2510769</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/738770</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/7535589</t>
   </si>
 </sst>
 </file>
@@ -514,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +542,7 @@
     <col min="3" max="4" width="22.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="52.26953125" customWidth="1"/>
+    <col min="7" max="7" width="59.81640625" customWidth="1"/>
     <col min="8" max="8" width="31.36328125" customWidth="1"/>
     <col min="9" max="9" width="36.7265625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
@@ -609,7 +627,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
@@ -629,7 +649,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
@@ -649,7 +671,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
@@ -669,7 +693,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
@@ -689,7 +715,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
@@ -789,7 +817,9 @@
         <v>44</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF48D07-7A3C-4A79-BAD1-211B1D602A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476E5E9-4AA7-45F4-A5B6-820E99DC003F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>coord</t>
   </si>
@@ -150,9 +150,6 @@
     <t>https://fr.wikipedia.org/wiki/M%C3%A9nagerie_royale_de_Versailles</t>
   </si>
   <si>
-    <t>Disparu</t>
-  </si>
-  <si>
     <t>48.804422, 2.092659</t>
   </si>
   <si>
@@ -184,6 +181,108 @@
   </si>
   <si>
     <t>https://www.geonames.org/7535589</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Palais Royal</t>
+  </si>
+  <si>
+    <t>palais_royal</t>
+  </si>
+  <si>
+    <t>italie</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>arsenal</t>
+  </si>
+  <si>
+    <t>saint_paul</t>
+  </si>
+  <si>
+    <t>Détruite</t>
+  </si>
+  <si>
+    <t>Eglise Saint Louis des Jésuites</t>
+  </si>
+  <si>
+    <t>saint_louis_des_jesuites</t>
+  </si>
+  <si>
+    <t>Eglise St-Paul St-Louis</t>
+  </si>
+  <si>
+    <t>Eglise Saint Paul des Champs</t>
+  </si>
+  <si>
+    <t>Château de Saint-Cloud</t>
+  </si>
+  <si>
+    <t>Dom. Nat de Saint Cloud</t>
+  </si>
+  <si>
+    <t>Saint-Cloud</t>
+  </si>
+  <si>
+    <t>chateau_saint_cloud</t>
+  </si>
+  <si>
+    <t>Détruit</t>
+  </si>
+  <si>
+    <t>Couvent des Visitandines de Chaillot</t>
+  </si>
+  <si>
+    <t>couvent_chaillot</t>
+  </si>
+  <si>
+    <t>Jardins du château de Saint-Cloud</t>
+  </si>
+  <si>
+    <t>jardin_saint_cloud</t>
+  </si>
+  <si>
+    <t>Mont Valérien</t>
+  </si>
+  <si>
+    <t>Suresne</t>
+  </si>
+  <si>
+    <t>mont_valerien</t>
+  </si>
+  <si>
+    <t>Monastère des Ursulines de Saint-Cloud</t>
+  </si>
+  <si>
+    <t>Ancien couvent des Ursulines</t>
+  </si>
+  <si>
+    <t>ursulines_saint_cloud</t>
+  </si>
+  <si>
+    <t>versailles</t>
+  </si>
+  <si>
+    <t>Petit Parc de Versailles</t>
+  </si>
+  <si>
+    <t>petit_parc_versailles</t>
+  </si>
+  <si>
+    <t>Grande Allée de Versailles</t>
+  </si>
+  <si>
+    <t>grande_allee_versailles</t>
+  </si>
+  <si>
+    <t>Avenues du Parc de Versailles</t>
+  </si>
+  <si>
+    <t>avenues_parc_versailles</t>
   </si>
 </sst>
 </file>
@@ -215,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -238,16 +337,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,16 +639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="4" width="22.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
@@ -612,14 +723,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -627,257 +738,295 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -885,17 +1034,176 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476E5E9-4AA7-45F4-A5B6-820E99DC003F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A891B3-CA1D-4451-925B-459131C87A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
   <si>
     <t>coord</t>
   </si>
@@ -60,9 +60,6 @@
     <t>forme normalisée</t>
   </si>
   <si>
-    <t>chateau_versailles</t>
-  </si>
-  <si>
     <t>48.804992, 2.121900</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>elide</t>
   </si>
   <si>
-    <t>bassin_cygnes</t>
-  </si>
-  <si>
     <t>48.807634, 2.111452</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Fontainebleau</t>
   </si>
   <si>
-    <t>menagerie</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Château de Fontainebleau</t>
   </si>
   <si>
-    <t>chateau_fontainebleau</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/2988507</t>
   </si>
   <si>
@@ -189,30 +177,18 @@
     <t>Palais Royal</t>
   </si>
   <si>
-    <t>palais_royal</t>
-  </si>
-  <si>
     <t>italie</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>arsenal</t>
-  </si>
-  <si>
-    <t>saint_paul</t>
-  </si>
-  <si>
     <t>Détruite</t>
   </si>
   <si>
     <t>Eglise Saint Louis des Jésuites</t>
   </si>
   <si>
-    <t>saint_louis_des_jesuites</t>
-  </si>
-  <si>
     <t>Eglise St-Paul St-Louis</t>
   </si>
   <si>
@@ -228,61 +204,271 @@
     <t>Saint-Cloud</t>
   </si>
   <si>
-    <t>chateau_saint_cloud</t>
-  </si>
-  <si>
     <t>Détruit</t>
   </si>
   <si>
     <t>Couvent des Visitandines de Chaillot</t>
   </si>
   <si>
-    <t>couvent_chaillot</t>
-  </si>
-  <si>
     <t>Jardins du château de Saint-Cloud</t>
   </si>
   <si>
-    <t>jardin_saint_cloud</t>
-  </si>
-  <si>
     <t>Mont Valérien</t>
   </si>
   <si>
     <t>Suresne</t>
   </si>
   <si>
-    <t>mont_valerien</t>
-  </si>
-  <si>
     <t>Monastère des Ursulines de Saint-Cloud</t>
   </si>
   <si>
     <t>Ancien couvent des Ursulines</t>
   </si>
   <si>
-    <t>ursulines_saint_cloud</t>
-  </si>
-  <si>
     <t>versailles</t>
   </si>
   <si>
     <t>Petit Parc de Versailles</t>
   </si>
   <si>
-    <t>petit_parc_versailles</t>
-  </si>
-  <si>
     <t>Grande Allée de Versailles</t>
   </si>
   <si>
-    <t>grande_allee_versailles</t>
-  </si>
-  <si>
     <t>Avenues du Parc de Versailles</t>
   </si>
   <si>
-    <t>avenues_parc_versailles</t>
+    <t>versailles_chateau</t>
+  </si>
+  <si>
+    <t>fontainebleau_chateau</t>
+  </si>
+  <si>
+    <t>paris_arsenal</t>
+  </si>
+  <si>
+    <t>saint_cloud_chateau</t>
+  </si>
+  <si>
+    <t>saint_cloud_ursulines</t>
+  </si>
+  <si>
+    <t>paris_palais_royal</t>
+  </si>
+  <si>
+    <t>paris_saint_paul</t>
+  </si>
+  <si>
+    <t>paris_saint_louis_des_jesuites</t>
+  </si>
+  <si>
+    <t>paris_chaillot_couvent</t>
+  </si>
+  <si>
+    <t>suresne_mont_valerien</t>
+  </si>
+  <si>
+    <t>versailles_jardins_avenues</t>
+  </si>
+  <si>
+    <t>versailles_jardins_petit_parc</t>
+  </si>
+  <si>
+    <t>versailles_jardins_menagerie</t>
+  </si>
+  <si>
+    <t>versailles_jardins_bassin_apollon</t>
+  </si>
+  <si>
+    <t>Louvre</t>
+  </si>
+  <si>
+    <t>paris_louvre</t>
+  </si>
+  <si>
+    <t>fontainebleau</t>
+  </si>
+  <si>
+    <t>Cour de Versailles</t>
+  </si>
+  <si>
+    <t>versailles_cour</t>
+  </si>
+  <si>
+    <t>paris_palais_royal_theatre</t>
+  </si>
+  <si>
+    <t>Théâtre du Palais-Royal</t>
+  </si>
+  <si>
+    <t>Rue Sainte-Anne</t>
+  </si>
+  <si>
+    <t>paris_sainte_anne</t>
+  </si>
+  <si>
+    <t>Paroisse Saint-Roch</t>
+  </si>
+  <si>
+    <t>paris_saint_roch</t>
+  </si>
+  <si>
+    <t>paris_saint_germain_l_auxerrois</t>
+  </si>
+  <si>
+    <t>Paroisse Saint-Germain l'Auxerrois</t>
+  </si>
+  <si>
+    <t>Savoie</t>
+  </si>
+  <si>
+    <t>savoie</t>
+  </si>
+  <si>
+    <t>vincennes_chateau</t>
+  </si>
+  <si>
+    <t>Vincennes</t>
+  </si>
+  <si>
+    <t>Château de Vincennes</t>
+  </si>
+  <si>
+    <t>versailles_jardins_grande_allee</t>
+  </si>
+  <si>
+    <t>saint_cloud_jardins</t>
+  </si>
+  <si>
+    <t>Hôtel d'Albret</t>
+  </si>
+  <si>
+    <t>fontainebleau_hotel_albret</t>
+  </si>
+  <si>
+    <t>Hôtel de Bourgogne</t>
+  </si>
+  <si>
+    <t>paris_hôtel_de_bourgogne</t>
+  </si>
+  <si>
+    <t>Tour Jean Sans Peur</t>
+  </si>
+  <si>
+    <t>Chapelle de Fréminet</t>
+  </si>
+  <si>
+    <t>Chapelle de la Trinité</t>
+  </si>
+  <si>
+    <t>fontaibleau_chapelle</t>
+  </si>
+  <si>
+    <t>Place Royale</t>
+  </si>
+  <si>
+    <t>Place des Vosges</t>
+  </si>
+  <si>
+    <t>paris_place_des_vosges</t>
+  </si>
+  <si>
+    <t>Palais des Tuileries</t>
+  </si>
+  <si>
+    <t>paris_tuileries_chateau</t>
+  </si>
+  <si>
+    <t>Hôtel de Vendôme</t>
+  </si>
+  <si>
+    <t>paris_hotel_vendome</t>
+  </si>
+  <si>
+    <t>Place des Tuileries</t>
+  </si>
+  <si>
+    <t>paris_place_tuileries</t>
+  </si>
+  <si>
+    <t>Rue de Richelieu</t>
+  </si>
+  <si>
+    <t>Rue Saint-Honoré</t>
+  </si>
+  <si>
+    <t>Rue Saint-Niçaise</t>
+  </si>
+  <si>
+    <t>paris_rue_richelieu</t>
+  </si>
+  <si>
+    <t>paris_rue_nicaise</t>
+  </si>
+  <si>
+    <t>Rue Saint-Antoine</t>
+  </si>
+  <si>
+    <t>parie_rue_antoine</t>
+  </si>
+  <si>
+    <t>paris_rue_honore</t>
+  </si>
+  <si>
+    <t>Franche-Comté</t>
+  </si>
+  <si>
+    <t>franche_comte</t>
+  </si>
+  <si>
+    <t>Trianon</t>
+  </si>
+  <si>
+    <t>versailles_trianon</t>
+  </si>
+  <si>
+    <t>Bosquet de la salle du Conseil</t>
+  </si>
+  <si>
+    <t>Bosquet de l'obélisque</t>
+  </si>
+  <si>
+    <t>versailles_jardins_obelisque</t>
+  </si>
+  <si>
+    <t>versailles_canal</t>
+  </si>
+  <si>
+    <t>Canal de Versailles</t>
+  </si>
+  <si>
+    <t>Grotte de Thetis</t>
+  </si>
+  <si>
+    <t>versailles_jardins_grotte_thetis</t>
+  </si>
+  <si>
+    <t>Allée et fontaine du Dragon</t>
+  </si>
+  <si>
+    <t>versailles_jardins_dragon</t>
+  </si>
+  <si>
+    <t>L'Orangerie</t>
+  </si>
+  <si>
+    <t>versailles_orangerie</t>
+  </si>
+  <si>
+    <t>Grande Terrasse de Versailles</t>
+  </si>
+  <si>
+    <t>versailles_jardins_grande_terrasse</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>allemagne</t>
   </si>
 </sst>
 </file>
@@ -314,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -337,17 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -358,7 +533,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,18 +814,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="59.81640625" customWidth="1"/>
@@ -661,16 +837,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -682,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -692,47 +868,37 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
@@ -742,17 +908,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
@@ -763,14 +929,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -782,17 +948,19 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2"/>
@@ -803,229 +971,221 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1035,14 +1195,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>8</v>
@@ -1055,38 +1215,38 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="2"/>
@@ -1096,21 +1256,15 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1119,18 +1273,18 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2"/>
@@ -1140,71 +1294,689 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>69</v>
+      <c r="A22" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J54">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A891B3-CA1D-4451-925B-459131C87A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416ECED-C6F0-43B2-80AE-7879A1EA270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
   <si>
     <t>coord</t>
   </si>
@@ -469,13 +469,58 @@
   </si>
   <si>
     <t>allemagne</t>
+  </si>
+  <si>
+    <t>48.842646, 2.435955</t>
+  </si>
+  <si>
+    <t>48.814697, 2.105503</t>
+  </si>
+  <si>
+    <t>48.802657, 2.119101</t>
+  </si>
+  <si>
+    <t>48.806319, 2.114681</t>
+  </si>
+  <si>
+    <t>48.808843, 2.113953</t>
+  </si>
+  <si>
+    <t>48.805638, 2.122270</t>
+  </si>
+  <si>
+    <t>48.805280, 2.118511</t>
+  </si>
+  <si>
+    <t>48.806314, 2.114093</t>
+  </si>
+  <si>
+    <t>48.808214, 2.122281</t>
+  </si>
+  <si>
+    <t>48.807035, 2.111345</t>
+  </si>
+  <si>
+    <t>48.804759, 2.120846</t>
+  </si>
+  <si>
+    <t>48.804828, 2.120332</t>
+  </si>
+  <si>
+    <t>48.801819, 2.129133</t>
+  </si>
+  <si>
+    <t>48.873225, 2.213064</t>
+  </si>
+  <si>
+    <t>48.840129, 2.219135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +532,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -816,9 +867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,7 +932,9 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -901,7 +954,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -921,7 +976,9 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -941,7 +998,9 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -963,7 +1022,9 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1011,7 +1072,9 @@
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1031,7 +1094,9 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1051,7 +1116,9 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1071,7 +1138,9 @@
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1117,7 +1186,9 @@
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1137,7 +1208,9 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1187,7 +1260,9 @@
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1207,7 +1282,9 @@
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1249,7 +1326,9 @@
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1287,7 +1366,9 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1977,6 +2058,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J54">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416ECED-C6F0-43B2-80AE-7879A1EA270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60205916-A586-421A-999D-4FD736A3EC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
   <si>
     <t>coord</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Monastère des Ursulines de Saint-Cloud</t>
   </si>
   <si>
-    <t>Ancien couvent des Ursulines</t>
-  </si>
-  <si>
     <t>versailles</t>
   </si>
   <si>
@@ -514,6 +511,102 @@
   </si>
   <si>
     <t>48.840129, 2.219135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.837486, 2.213790 </t>
+  </si>
+  <si>
+    <t>48.837627, 2.216655</t>
+  </si>
+  <si>
+    <t>48.862226, 2.331402</t>
+  </si>
+  <si>
+    <t>48.865930, 2.335369</t>
+  </si>
+  <si>
+    <t>48.866196, 2.332785</t>
+  </si>
+  <si>
+    <t>48.853922, 2.362283</t>
+  </si>
+  <si>
+    <t>9 rue d'Orléans (Saint-Cloud)</t>
+  </si>
+  <si>
+    <t>30-32 rue Saint-Paul (Paris)</t>
+  </si>
+  <si>
+    <t>48.854570, 2.361736</t>
+  </si>
+  <si>
+    <t>48.859540, 2.342038</t>
+  </si>
+  <si>
+    <t>48.867865, 2.337846</t>
+  </si>
+  <si>
+    <t>Disparue</t>
+  </si>
+  <si>
+    <t>48.861229, 2.334836</t>
+  </si>
+  <si>
+    <t>48.864082, 2.333858</t>
+  </si>
+  <si>
+    <t>48.861792, 2.333142</t>
+  </si>
+  <si>
+    <t>Arc de Triomphe des Tuileries</t>
+  </si>
+  <si>
+    <t>48.855520, 2.365602</t>
+  </si>
+  <si>
+    <t>48.863206, 2.337492</t>
+  </si>
+  <si>
+    <t>Disparu</t>
+  </si>
+  <si>
+    <t>48.863788, 2.337395</t>
+  </si>
+  <si>
+    <t>48.860659, 2.338038</t>
+  </si>
+  <si>
+    <t>Musée du Louvre</t>
+  </si>
+  <si>
+    <t>Place Vendôme</t>
+  </si>
+  <si>
+    <t>48.866804, 2.328786</t>
+  </si>
+  <si>
+    <t>48.864442, 2.348406</t>
+  </si>
+  <si>
+    <t>48.861297, 2.287158</t>
+  </si>
+  <si>
+    <t>Bibliothèque de l'Arsenal</t>
+  </si>
+  <si>
+    <t>48.850360, 2.364179</t>
+  </si>
+  <si>
+    <t>48.854449, 2.363732</t>
+  </si>
+  <si>
+    <t>48.403888, 2.703131</t>
+  </si>
+  <si>
+    <t>4 rue d'Avon</t>
+  </si>
+  <si>
+    <t>48.402140, 2.699699</t>
   </si>
 </sst>
 </file>
@@ -867,9 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,20 +1012,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -942,10 +1034,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -955,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -964,10 +1056,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -977,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -986,10 +1078,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -999,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1008,13 +1100,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1023,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1032,7 +1124,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -1060,10 +1152,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -1073,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1082,10 +1174,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1095,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1104,10 +1196,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1117,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1126,10 +1218,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -1139,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1148,7 +1240,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1174,10 +1266,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -1187,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1196,10 +1288,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -1209,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1218,7 +1310,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1248,10 +1340,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1261,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1270,7 +1362,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -1283,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1314,7 +1406,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>62</v>
@@ -1327,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1336,10 +1428,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1352,13 +1444,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1367,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1376,7 +1468,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>61</v>
@@ -1390,7 +1482,9 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1398,7 +1492,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
@@ -1412,7 +1506,9 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1420,10 +1516,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -1432,7 +1528,9 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1440,10 +1538,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
@@ -1452,7 +1550,9 @@
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1460,10 +1560,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
@@ -1472,7 +1572,9 @@
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1480,13 +1582,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
@@ -1494,7 +1596,9 @@
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1502,7 +1606,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
@@ -1516,7 +1620,9 @@
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1524,17 +1630,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1542,10 +1650,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1554,7 +1662,9 @@
       <c r="E30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1562,19 +1672,23 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1582,10 +1696,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -1594,7 +1708,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1602,19 +1718,23 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1622,13 +1742,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>17</v>
@@ -1636,7 +1756,9 @@
       <c r="E34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1644,19 +1766,23 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1664,7 +1790,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -1676,7 +1802,9 @@
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1684,19 +1812,23 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1704,19 +1836,23 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1724,13 +1860,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>17</v>
@@ -1738,7 +1874,9 @@
       <c r="E39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1746,7 +1884,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>60</v>
@@ -1760,7 +1898,9 @@
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1768,19 +1908,23 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1812,10 +1956,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1824,7 +1968,9 @@
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1872,10 +2018,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1910,19 +2056,23 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1930,7 +2080,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
@@ -1958,7 +2108,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
@@ -1968,7 +2118,6 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -1976,13 +2125,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>33</v>
@@ -1990,7 +2139,9 @@
       <c r="E51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2040,10 +2191,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>

--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degyo\Documents\GitHub\Merveilles17\index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60205916-A586-421A-999D-4FD736A3EC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01596F6-598E-4CA2-8024-E9EB25BD6E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="220">
   <si>
     <t>coord</t>
   </si>
@@ -607,13 +607,91 @@
   </si>
   <si>
     <t>48.402140, 2.699699</t>
+  </si>
+  <si>
+    <t>rue_saint_jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rue Saint Jacques </t>
+  </si>
+  <si>
+    <t>Paris, Vème</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Rue_Saint-Jacques_(Paris)</t>
+  </si>
+  <si>
+    <t>48.845473, 2.342599</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>versailles_jardins</t>
+  </si>
+  <si>
+    <t>48.802759, 2.118029</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+  </si>
+  <si>
+    <t>saint_germain</t>
+  </si>
+  <si>
+    <t>Saint-Germain</t>
+  </si>
+  <si>
+    <t>Saint-Germain-en-Laye</t>
+  </si>
+  <si>
+    <t>Jardins de Versailles</t>
+  </si>
+  <si>
+    <t>versailles_jardins_allee_royale</t>
+  </si>
+  <si>
+    <t>Allée Royale du château de Versailles, le Tapis Vert</t>
+  </si>
+  <si>
+    <t>48.806599, 2.114053</t>
+  </si>
+  <si>
+    <t>versailles_jardins_allee_du_roi</t>
+  </si>
+  <si>
+    <t>48.805003, 2.112412</t>
+  </si>
+  <si>
+    <t>48.808373, 2.114021</t>
+  </si>
+  <si>
+    <t>Allée des prés, Allée de Cérès et de Flore</t>
+  </si>
+  <si>
+    <t>Allée du Roi, Allée de Bacchus et de Saturne</t>
+  </si>
+  <si>
+    <t>versailles_jardins_allee_des_prés</t>
+  </si>
+  <si>
+    <t>versailles_grand_parc</t>
+  </si>
+  <si>
+    <t>Grand parc de Versailles</t>
+  </si>
+  <si>
+    <t>48.810100, 2.099950</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +713,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -644,7 +730,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -667,19 +753,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,27 +1062,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="59.81640625" customWidth="1"/>
-    <col min="8" max="8" width="31.36328125" customWidth="1"/>
-    <col min="9" max="9" width="36.7265625" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="59.77734375" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,518 +1114,498 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>141</v>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>137</v>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>102</v>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1529,203 +1613,201 @@
         <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>169</v>
-      </c>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1733,484 +1815,683 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>89</v>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>84</v>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="2"/>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>33</v>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>210</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>109</v>
-      </c>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>145</v>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J54">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G34" r:id="rId1" xr:uid="{54E065CE-416F-4BF7-819E-8FBB27B3A0D6}"/>
+    <hyperlink ref="G47" r:id="rId2" xr:uid="{F2B947D0-2627-4059-B223-2D572022F896}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/index/locorum.xlsx
+++ b/index/locorum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01596F6-598E-4CA2-8024-E9EB25BD6E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAEA542-ED67-48E0-9314-6EE415A64AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="235">
   <si>
     <t>coord</t>
   </si>
@@ -685,6 +685,51 @@
   </si>
   <si>
     <t>48.810100, 2.099950</t>
+  </si>
+  <si>
+    <t>versailles_etang_clagny</t>
+  </si>
+  <si>
+    <t>Rue des réservoirs</t>
+  </si>
+  <si>
+    <t>Étang de Clagny</t>
+  </si>
+  <si>
+    <t>48.806629, 2.123743</t>
+  </si>
+  <si>
+    <t>versailles_jardins_parterre_de_latone</t>
+  </si>
+  <si>
+    <t>Parterre de Latone</t>
+  </si>
+  <si>
+    <t>48.805669, 2.117073</t>
+  </si>
+  <si>
+    <t>versailles_jardins_bassin_de_ceres</t>
+  </si>
+  <si>
+    <t>La Salle de bal</t>
+  </si>
+  <si>
+    <t>Bassin de Cérès</t>
+  </si>
+  <si>
+    <t>48.807503, 2.117222</t>
+  </si>
+  <si>
+    <t>versailles_jardins_bassin_de_flore</t>
+  </si>
+  <si>
+    <t>Bassin de Flore</t>
+  </si>
+  <si>
+    <t>Le Buffet, la Grotte</t>
+  </si>
+  <si>
+    <t>48.808177, 2.114666</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2096,20 +2141,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>219</v>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2118,10 +2165,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
@@ -2131,21 +2178,19 @@
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -2155,19 +2200,21 @@
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -2177,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2186,10 +2233,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -2198,8 +2245,8 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F50" t="s">
-        <v>210</v>
+      <c r="F50" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2207,11 +2254,11 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>68</v>
+      <c r="A51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
@@ -2221,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2230,14 +2277,12 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2245,53 +2290,57 @@
         <v>8</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>154</v>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2300,32 +2349,30 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="F55" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
@@ -2335,7 +2382,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -2344,14 +2391,12 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
         <v>7</v>
       </c>
@@ -2359,27 +2404,21 @@
         <v>8</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2426,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -2395,21 +2434,21 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>66</v>
+      <c r="A59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -2417,35 +2456,43 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="7"/>
+      <c r="A60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="J60" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="D61" s="7" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -2462,34 +2509,117 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J62">
-    <sortCondition ref="A2:A62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G34" r:id="rId1" xr:uid="{54E065CE-416F-4BF7-819E-8FBB27B3A0D6}"/>
-    <hyperlink ref="G47" r:id="rId2" xr:uid="{F2B947D0-2627-4059-B223-2D572022F896}"/>
+    <hyperlink ref="G48" r:id="rId2" xr:uid="{F2B947D0-2627-4059-B223-2D572022F896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
